--- a/0Myself/总资产.xlsx
+++ b/0Myself/总资产.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/Money/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/0Myself/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="投资策略" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -604,6 +604,13 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股数</t>
+    <rPh sb="0" eb="1">
+      <t>gu'shu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -939,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1054,22 +1061,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1083,16 +1091,19 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>170825</v>
       </c>
@@ -1103,16 +1114,36 @@
         <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="E2" s="1">
+        <v>3.024</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="1">
         <v>8.84</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>0.11310000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>170907</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="E3">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -1230,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1329,7 @@
         <v>10000</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="0">D3+C4</f>
+        <f t="shared" ref="D4:D11" si="0">D3+C4</f>
         <v>12900</v>
       </c>
     </row>
@@ -1390,6 +1421,21 @@
       <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>2900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>170907</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2200</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/0Myself/总资产.xlsx
+++ b/0Myself/总资产.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24380" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="投资策略" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>我的定投计划</t>
     <rPh sb="0" eb="1">
@@ -611,6 +611,156 @@
     <t>股数</t>
     <rPh sb="0" eb="1">
       <t>gu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以找关系降低手续费，但是手续费的降低会出现在一定的时间段内，不如月底之类的，不太可能立即降低</t>
+  </si>
+  <si>
+    <t>既然知道都买红利ETF，有两种心态，完全可以无视价格反正就是看盈利收益率买了等分红，但是也明显可以尽可能买好分红，后一种回报更明显。</t>
+    <rPh sb="0" eb="1">
+      <t>ji'ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'dao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dou'mai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hong'li</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>you'liang'zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xin'tai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wan'quan'k</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wu'shi'jia'ge</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fan'zheng'jiu'shi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ying'li</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shou'yi'l</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>mai'le</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>deng'fen'hong</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>dan'shi</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ye'ming'xian</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>jin'ke'nneg</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>mai'hao'fen'hong</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>hou'yi'zhong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>hui'bao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>geng'ming'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到每天的晚上快结束的时候价格会更低一些？那时候买入可以低价大量买入，或者就一天一天少量分散投资100股。</t>
+    <rPh sb="0" eb="1">
+      <t>dao'mei'tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wan'shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kuai'jie'shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi'hou</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>geng'di'yi'xie</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>na'shi'hou</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>di'jia</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>da'liang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mai'ru</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>yi'tian'yi'tian</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>shao'nian</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fen'san</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>tou'zi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>gu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,7 +769,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,6 +782,32 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -653,10 +829,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,9 +845,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -944,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,6 +1236,24 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1064,7 +1265,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1275,9 @@
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1263,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/0Myself/总资产.xlsx
+++ b/0Myself/总资产.xlsx
@@ -692,7 +692,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>到每天的晚上快结束的时候价格会更低一些？那时候买入可以低价大量买入，或者就一天一天少量分散投资100股。</t>
+    <t>到每天的晚上快结束（下午四点左右有人要赶紧退场？）的时候价格会更低一些？那时候买入可以低价大量买入，或者就一天一天少量分散投资100股。</t>
     <rPh sb="0" eb="1">
       <t>dao'mei'tian</t>
     </rPh>
@@ -705,61 +705,79 @@
     <rPh sb="6" eb="7">
       <t>kuai'jie'shu</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="10" eb="11">
+      <t>xia'wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>si'dian'zuo'you'de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you'ren</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gan'jin</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>tui'chang</t>
+    </rPh>
+    <rPh sb="25" eb="26">
       <t>de</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="26" eb="27">
       <t>shi'hou</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="28" eb="29">
       <t>jia'ge</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="30" eb="31">
       <t>hui</t>
     </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="31" eb="32">
       <t>geng'di'yi'xie</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="36" eb="37">
       <t>na'shi'hou</t>
     </rPh>
-    <rPh sb="23" eb="24">
+    <rPh sb="39" eb="40">
       <t>mai'ru</t>
     </rPh>
-    <rPh sb="25" eb="26">
+    <rPh sb="41" eb="42">
       <t>ke'yi</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="43" eb="44">
       <t>di'jia</t>
     </rPh>
-    <rPh sb="29" eb="30">
+    <rPh sb="45" eb="46">
       <t>da'liang</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="47" eb="48">
       <t>mai'ru</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="50" eb="51">
       <t>huo'zhe</t>
     </rPh>
-    <rPh sb="36" eb="37">
+    <rPh sb="52" eb="53">
       <t>jiu</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="53" eb="54">
       <t>yi'tian'yi'tian</t>
     </rPh>
-    <rPh sb="41" eb="42">
+    <rPh sb="57" eb="58">
       <t>shao'nian</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="58" eb="59">
       <t>liang</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="59" eb="60">
       <t>fen'san</t>
     </rPh>
-    <rPh sb="45" eb="46">
+    <rPh sb="61" eb="62">
       <t>tou'zi</t>
     </rPh>
-    <rPh sb="50" eb="51">
+    <rPh sb="66" eb="67">
       <t>gu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,7 +1148,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
